--- a/GenSounds/MMN/MSTI_ClickTrain_Config.xlsx
+++ b/GenSounds/MMN/MSTI_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D17DBE2-9747-4977-80D9-31EC84C284D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AEFB1-E36E-4ABB-BB3C-F574BEACD3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="139">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,26 @@
   </si>
   <si>
     <t>4.5,7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTI_BG-14_S1-11o7_S2-16o8_ISI_600_Dur_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTI_BG-14_S1-11o7_S2-16o8_ISI_600_Dur_300_STDN_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.7,16.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -784,6 +804,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2069,23 +2092,23 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>7.7</v>
+      <c r="A15" s="46">
+        <v>7.61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4">
         <v>97656</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>85</v>
@@ -2115,16 +2138,16 @@
         <v>26</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="R15" s="3">
         <v>1</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>37</v>
@@ -2138,7 +2161,7 @@
     </row>
     <row r="16" spans="1:25" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>105</v>
@@ -2147,13 +2170,13 @@
         <v>97656</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>85</v>
@@ -2183,16 +2206,16 @@
         <v>26</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R16" s="3">
         <v>1</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>37</v>
@@ -2204,77 +2227,77 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="17" spans="1:25" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C17" s="4">
         <v>97656</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="2">
         <v>0.5</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="J17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T18" s="8" t="s">
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U17" t="s">
         <v>6</v>
       </c>
-      <c r="Y18" s="42" t="s">
+      <c r="Y17" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>105</v>
@@ -2283,13 +2306,13 @@
         <v>97656</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>102</v>
@@ -2319,16 +2342,16 @@
         <v>48</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R19" s="3">
         <v>1</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>37</v>
@@ -2340,92 +2363,92 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="4">
+    <row r="20" spans="1:25" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4">
         <v>97656</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.5</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="J20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T21" s="8" t="s">
+      <c r="N20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U20" t="s">
         <v>6</v>
       </c>
-      <c r="Y21" s="42" t="s">
+      <c r="Y20" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4">
         <v>97656</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>126</v>
@@ -2443,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>45</v>
@@ -2455,16 +2478,16 @@
         <v>26</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R22" s="3">
         <v>1</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>37</v>
@@ -2478,7 +2501,7 @@
     </row>
     <row r="23" spans="1:25" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>129</v>
@@ -2487,13 +2510,13 @@
         <v>97656</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>126</v>
@@ -2523,16 +2546,16 @@
         <v>26</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="R23" s="3">
         <v>1</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>37</v>
@@ -2544,59 +2567,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="126" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:25" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="4">
+        <v>97656</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="126" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>101</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="10">
-        <v>97656</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1</v>
-      </c>
-      <c r="V24" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="X24" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y24" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="56" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>101.1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C25" s="10">
         <v>97656</v>
@@ -2614,25 +2658,25 @@
         <v>70</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I25" s="7">
         <v>0.5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="43" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W25" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="X25" s="44" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Y25" s="45" t="s">
         <v>76</v>
@@ -2640,7 +2684,7 @@
     </row>
     <row r="26" spans="1:25" ht="56" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>79</v>
@@ -2649,13 +2693,13 @@
         <v>97656</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>70</v>
@@ -2673,22 +2717,64 @@
         <v>0</v>
       </c>
       <c r="V26" s="43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W26" s="44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X26" s="44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y26" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+    <row r="27" spans="1:25" ht="56" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>101.2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="10">
+        <v>97656</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="W27" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="X27" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P30" s="6"/>
@@ -2696,9 +2782,9 @@
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D32" s="7"/>
@@ -2710,12 +2796,12 @@
       <c r="F33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
       <c r="F34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="7"/>
       <c r="F35" s="7"/>
       <c r="I35" s="7"/>
@@ -2725,15 +2811,20 @@
       <c r="F36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="I39" s="7"/>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
       <c r="F40" s="7"/>
       <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
